--- a/templates/report/propietarios.xlsx
+++ b/templates/report/propietarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A2FCC83-CB97-4F57-BB44-B8326CC3BBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCCBD74-3A9D-4E1A-961B-F138BB8D8C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Tipo de proveedor</t>
   </si>
@@ -65,12 +65,6 @@
 firmante</t>
   </si>
   <si>
-    <t>Formato factura</t>
-  </si>
-  <si>
-    <t>Formato recibo</t>
-  </si>
-  <si>
     <t>Provider_type.Name</t>
   </si>
   <si>
@@ -117,6 +111,33 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Formato
+recibo</t>
+  </si>
+  <si>
+    <t>Formato
+factura</t>
+  </si>
+  <si>
+    <t>Formato
+rectificativa</t>
+  </si>
+  <si>
+    <t>Credit_pattern</t>
+  </si>
+  <si>
+    <t>Prefijo SAP</t>
+  </si>
+  <si>
+    <t>Prefix_SAP</t>
   </si>
 </sst>
 </file>
@@ -622,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -641,13 +662,13 @@
     <col min="12" max="12" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="24.85546875" style="2"/>
+    <col min="15" max="15" width="10.28515625" style="2" customWidth="1"/>
+    <col min="16" max="18" width="11.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="31" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="24.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -691,65 +712,83 @@
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="S2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -766,6 +805,9 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/templates/report/propietarios.xlsx
+++ b/templates/report/propietarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCCBD74-3A9D-4E1A-961B-F138BB8D8C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B26FE75-F7CE-41B9-97ED-892C090DF5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Tipo de proveedor</t>
   </si>
@@ -55,16 +55,6 @@
     <t>Teléfonos</t>
   </si>
   <si>
-    <t>Tipo ID firmante</t>
-  </si>
-  <si>
-    <t>ID firmante</t>
-  </si>
-  <si>
-    <t>Nombre 
-firmante</t>
-  </si>
-  <si>
     <t>Provider_type.Name</t>
   </si>
   <si>
@@ -93,15 +83,6 @@
   </si>
   <si>
     <t>Phones</t>
-  </si>
-  <si>
-    <t>Signer_id_type.Name</t>
-  </si>
-  <si>
-    <t>Signer_document</t>
-  </si>
-  <si>
-    <t>Signer_name</t>
   </si>
   <si>
     <t>Bill_pattern</t>
@@ -643,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -659,16 +640,13 @@
     <col min="8" max="8" width="13.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="31" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="2" customWidth="1"/>
-    <col min="16" max="18" width="11.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="31" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="24.85546875" style="2"/>
+    <col min="12" max="12" width="10.28515625" style="2" customWidth="1"/>
+    <col min="13" max="15" width="11.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="31" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="24.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -703,92 +681,74 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -805,9 +765,6 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/templates/report/propietarios.xlsx
+++ b/templates/report/propietarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B26FE75-F7CE-41B9-97ED-892C090DF5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC932E68-5919-48B1-B593-7425A6AE637A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Tipo de proveedor</t>
   </si>
@@ -55,49 +55,10 @@
     <t>Teléfonos</t>
   </si>
   <si>
-    <t>Provider_type.Name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Id_type.Name</t>
-  </si>
-  <si>
-    <t>Document</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>Country.Name</t>
-  </si>
-  <si>
-    <t>Phones</t>
-  </si>
-  <si>
-    <t>Bill_pattern</t>
-  </si>
-  <si>
-    <t>Receipt_pattern</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
     <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t>Formato
@@ -112,13 +73,10 @@
 rectificativa</t>
   </si>
   <si>
-    <t>Credit_pattern</t>
-  </si>
-  <si>
     <t>Prefijo SAP</t>
   </si>
   <si>
-    <t>Prefix_SAP</t>
+    <t>Propietarios</t>
   </si>
 </sst>
 </file>
@@ -148,16 +106,11 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -166,8 +119,14 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,12 +142,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00BFB2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,7 +179,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
@@ -235,11 +188,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -641,130 +594,85 @@
     <col min="9" max="9" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="31" style="2" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" style="2" customWidth="1"/>
-    <col min="13" max="15" width="11.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="31" style="2" customWidth="1"/>
+    <col min="13" max="15" width="13" style="2" customWidth="1"/>
+    <col min="16" max="16" width="41.85546875" style="2" customWidth="1"/>
     <col min="17" max="16384" width="24.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="L2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/templates/report/propietarios.xlsx
+++ b/templates/report/propietarios.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC932E68-5919-48B1-B593-7425A6AE637A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8FE6FF-DADE-4B60-B92C-A36AA073C6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Propietarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Tipo de proveedor</t>
   </si>
@@ -53,9 +66,6 @@
   </si>
   <si>
     <t>Teléfonos</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>Comentarios</t>
@@ -601,7 +611,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -639,25 +649,23 @@
         <v>10</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>

--- a/templates/report/propietarios.xlsx
+++ b/templates/report/propietarios.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8FE6FF-DADE-4B60-B92C-A36AA073C6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878B312E-D803-4056-A010-5AAC42C75C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Propietarios" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Propietarios!$A$2:$P$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -156,23 +159,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -192,17 +184,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -593,97 +586,98 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="31" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="2" customWidth="1"/>
-    <col min="13" max="15" width="13" style="2" customWidth="1"/>
-    <col min="16" max="16" width="41.85546875" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="24.85546875" style="2"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="31" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="13" style="1" customWidth="1"/>
+    <col min="16" max="16" width="41.85546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="24.85546875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:P2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>